--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/PE_pro.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/PE_pro.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
   </si>
   <si>
     <t>arg251946</t>
@@ -45,13 +45,13 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
   </si>
   <si>
     <t>arg251944</t>
   </si>
   <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
   </si>
   <si>
     <t>arg107456</t>
@@ -60,19 +60,19 @@
     <t>arg213068</t>
   </si>
   <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
   </si>
   <si>
     <t>arg34837</t>
   </si>
   <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
   </si>
   <si>
     <t>arg7751</t>
   </si>
   <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
   </si>
   <si>
     <t>arg260899</t>
@@ -81,13 +81,13 @@
     <t>arg96685</t>
   </si>
   <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg7765</t>
   </si>
   <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
   </si>
   <si>
     <t>arg552867</t>
@@ -96,25 +96,25 @@
     <t>arg244438</t>
   </si>
   <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
   </si>
   <si>
     <t>arg204909</t>
   </si>
   <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
   </si>
   <si>
     <t>arg316344</t>
   </si>
   <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg202285</t>
   </si>
   <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
   </si>
   <si>
     <t>movi</t>
@@ -156,13 +156,13 @@
     <t>arg71112</t>
   </si>
   <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
+  </si>
+  <si>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
   </si>
   <si>
     <t>arg54258</t>
@@ -171,25 +171,25 @@
     <t>arg107445</t>
   </si>
   <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
   </si>
   <si>
     <t>arg37974</t>
   </si>
   <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
   </si>
   <si>
     <t>arg107450</t>
   </si>
   <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
   </si>
   <si>
     <t>arg406468</t>
   </si>
   <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
   </si>
   <si>
     <t>they</t>
@@ -231,19 +231,19 @@
     <t>would be easier and would have made conditioning simple" the lack of exercise had caused them to only accomplish only 3 push-ups!</t>
   </si>
   <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>f the</t>
@@ -282,67 +282,67 @@
     <t>people are becoming obese!!!!</t>
   </si>
   <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
   </si>
   <si>
     <t>arg220374</t>
   </si>
   <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
   </si>
   <si>
     <t>arg135251</t>
   </si>
   <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>le.</t>
   </si>
   <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
   </si>
   <si>
     <t>arg207833</t>
   </si>
   <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
   </si>
   <si>
     <t>arg46577</t>
   </si>
   <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
   </si>
   <si>
     <t>hy yo</t>
@@ -381,19 +381,19 @@
     <t>x with your girlfriend(s)</t>
   </si>
   <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>aches</t>
@@ -435,19 +435,19 @@
     <t>PE is just Stupid</t>
   </si>
   <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
   </si>
   <si>
     <t>arg217790</t>
   </si>
   <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
   </si>
   <si>
     <t>doin</t>
@@ -474,28 +474,28 @@
     <t>l the same in the aspect that they only pass that class if they put forth effort. and from personal expirence sometimes there is a jock underneath the nerd outside</t>
   </si>
   <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
   </si>
   <si>
     <t>arg287979</t>
   </si>
   <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
   </si>
   <si>
     <t>way</t>
@@ -534,37 +534,37 @@
     <t>need to get moving! They need this for there health!</t>
   </si>
   <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
   </si>
   <si>
     <t>e is</t>
@@ -606,19 +606,19 @@
     <t>ical education is the reason why millions of people are fat. &lt;br/&gt; Lack of physical education is the reason why you cannot sleep properly at times. &lt;br/&gt; Lack of physical education is the reason why you are not having super great sex with your girlfriend(s)</t>
   </si>
   <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
   </si>
   <si>
     <t>arg148559</t>
   </si>
   <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>s. Wi</t>
@@ -654,10 +654,10 @@
     <t>would be fewer obese children around the globe and more fit and strong people.</t>
   </si>
   <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>ysica</t>
@@ -693,25 +693,25 @@
     <t>ing obese!!!!</t>
   </si>
   <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
   </si>
   <si>
     <t>lso s</t>
@@ -747,22 +747,22 @@
     <t>like cancer because of electromagnetic waves. this is true because computer have lots of electromagnetic waves.</t>
   </si>
   <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>and</t>
@@ -777,28 +777,28 @@
     <t>.</t>
   </si>
   <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
   </si>
   <si>
     <t>arg247696</t>
   </si>
   <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
   </si>
   <si>
     <t>If in</t>
@@ -828,37 +828,37 @@
     <t>lasses would be obligatory there would be much less fat children. Of course also some health classes should be included so that children know how to have a basic diet and so they won't be obese anymore.</t>
   </si>
   <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
   </si>
   <si>
     <t>se ha</t>
@@ -891,13 +891,13 @@
     <t>h only 3 push-ups!</t>
   </si>
   <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
   </si>
   <si>
     <t>re al</t>
@@ -927,16 +927,16 @@
     <t>ame thing then theyre all the same in the aspect that they only pass that class if they put forth effort. and from personal expirence sometimes there is a jock underneath the nerd outside</t>
   </si>
   <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>wer o</t>
@@ -960,31 +960,31 @@
     <t>and more fit and strong people.</t>
   </si>
   <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
   </si>
   <si>
     <t>st mo</t>
@@ -1014,40 +1014,40 @@
     <t>They need a way to keep everyone active, people need to get moving! They need this for there health!</t>
   </si>
   <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
-  </si>
-  <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
+  </si>
+  <si>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
   </si>
   <si>
     <t>lexib</t>
@@ -1080,37 +1080,37 @@
     <t>azy so they won't get bullied as much.</t>
   </si>
   <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>ld be</t>
@@ -1128,16 +1128,16 @@
     <t>e globe and more fit and strong people.</t>
   </si>
   <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
   </si>
   <si>
     <t>, and</t>
@@ -1158,19 +1158,19 @@
     <t>!!!</t>
   </si>
   <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
   </si>
   <si>
     <t>nd(s)</t>
   </si>
   <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
   </si>
   <si>
     <t>over</t>
@@ -1197,13 +1197,13 @@
     <t>h and dont get enough physical exercise.</t>
   </si>
   <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>0) it</t>
@@ -1230,7 +1230,7 @@
     <t>heart attacks. With the help of this class there would be fewer obese children around the globe and more fit and strong people.</t>
   </si>
   <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
   </si>
   <si>
     <t>stri</t>
@@ -1266,10 +1266,10 @@
     <t>re required to follow so less people in our country are less likely to be obese.</t>
   </si>
   <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
   </si>
   <si>
     <t>inner</t>
@@ -1296,19 +1296,19 @@
     <t>atter and more lazy so they won't get bullied as much.</t>
   </si>
   <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
   </si>
   <si>
     <t>rding</t>
@@ -1332,61 +1332,61 @@
     <t>her</t>
   </si>
   <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
   </si>
   <si>
     <t>f exe</t>
@@ -1404,25 +1404,25 @@
     <t>ccomplish only 3 push-ups!</t>
   </si>
   <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
   </si>
   <si>
     <t>an ad</t>
@@ -1455,25 +1455,25 @@
     <t>best thing for you to do is study, play and exercise. If you prefer to be lazy and lie on the couch all day then you are most likely to get sick and unfit. Besides, PE helps kids be better at teamwork.</t>
   </si>
   <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
   </si>
   <si>
     <t>n in</t>
@@ -1500,10 +1500,10 @@
     <t>of working together as a team that doesn't always happen in other classes.</t>
   </si>
   <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>obes</t>
@@ -1530,10 +1530,10 @@
     <t>ids are not pushed in their homes to have any physical activity.</t>
   </si>
   <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
   </si>
   <si>
     <t>play</t>
@@ -1566,10 +1566,10 @@
     <t>le that are not fat stop playing video games and go and get your energy back and these are my words "peace out assholes</t>
   </si>
   <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
   </si>
   <si>
     <t>t peo</t>
@@ -1599,7 +1599,7 @@
     <t>ll or something and people that are not fat stop playing video games and go and get your energy back and these are my words "peace out assholes</t>
   </si>
   <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
   </si>
   <si>
     <t>wont</t>
@@ -1620,19 +1620,19 @@
     <t>mulate thus will get chubbier. They should be stricter during those classes of Physical education because a lot of the time people mostly just stand around. I don't want to seem sexist, but the ones that get the least exercise are the girls and they just mostly stand there and socialize. They need a way to keep everyone active, people need to get moving! They need this for there health!</t>
   </si>
   <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
   </si>
   <si>
     <t>like</t>
@@ -1656,7 +1656,7 @@
     <t>.............................. &lt;br/&gt; I'm Done!!... Now go get a life, and lose some weight!!!!</t>
   </si>
   <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
   </si>
   <si>
     <t>Besi</t>
@@ -1677,7 +1677,7 @@
     <t>teamwork.</t>
   </si>
   <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>ong p</t>
@@ -1686,13 +1686,13 @@
     <t>eopl</t>
   </si>
   <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
   </si>
   <si>
     <t>ying</t>
@@ -1716,22 +1716,22 @@
     <t>energy back and these are my words "peace out assholes</t>
   </si>
   <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
   </si>
   <si>
     <t>ave m</t>
@@ -1758,37 +1758,37 @@
     <t>ck of exercise had caused them to only accomplish only 3 push-ups!</t>
   </si>
   <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
   </si>
   <si>
     <t>am th</t>
@@ -1818,61 +1818,61 @@
     <t>er classes.</t>
   </si>
   <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
   </si>
   <si>
     <t>ause</t>
@@ -1887,31 +1887,31 @@
     <t>nough physical exercise.</t>
   </si>
   <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
   </si>
   <si>
     <t>ymore</t>
   </si>
   <si>
-    <t>246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
+    <t>20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
   </si>
   <si>
     <t>rform</t>
@@ -1944,13 +1944,13 @@
     <t>and they quote "if we had PE conditions would be easier and would have made conditioning simple" the lack of exercise had caused them to only accomplish only 3 push-ups!</t>
   </si>
   <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>stron</t>
@@ -1980,28 +1980,28 @@
     <t>or you to become fat (of course you would also need to keep a balanced diet) and for further ages (like 60-80) it would prevent you from having heart attacks. With the help of this class there would be fewer obese children around the globe and more fit and strong people.</t>
   </si>
   <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
   </si>
   <si>
     <t>tuden</t>
@@ -2013,31 +2013,31 @@
     <t>d te</t>
   </si>
   <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,5.72,0.0,0.2,6.33,0.0,0.0,0.0,0.0,0.1,0.1,0.05,0.0,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17</t>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>5.0,6.0,0.35,1.27,0.27,0.0,5.72,0.0,0.2,6.33,0,0,0.0,0.0,0.0,0.27,0.2,0.13,0.2,0.2,0.0,0.07,0.0,0.0,0.0,4.75,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0</t>
   </si>
   <si>
     <t>d to</t>
@@ -2055,13 +2055,13 @@
     <t>there health!</t>
   </si>
   <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
   </si>
   <si>
     <t>all</t>
@@ -2094,25 +2094,25 @@
     <t>get sick and unfit. Besides, PE helps kids be better at teamwork.</t>
   </si>
   <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
   </si>
   <si>
     <t>gthen</t>
@@ -2139,25 +2139,25 @@
     <t>m being productive in their society.</t>
   </si>
   <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
   </si>
   <si>
     <t>es lo</t>
   </si>
   <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>or an</t>
@@ -2181,37 +2181,37 @@
     <t>you can get muscles, you can become stronger, it wouldn't be so easily for you to become fat (of course you would also need to keep a balanced diet) and for further ages (like 60-80) it would prevent you from having heart attacks. With the help of this class there would be fewer obese children around the globe and more fit and strong people.</t>
   </si>
   <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
   </si>
   <si>
     <t>ery s</t>
@@ -2229,43 +2229,43 @@
     <t>ould be obligatory there would be much less fat children. Of course also some health classes should be included so that children know how to have a basic diet and so they won't be obese anymore.</t>
   </si>
   <si>
-    <t>578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,111,0.0,15.06,0.0,0.2,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,20.0,5.55,0.46,0.42,1.1,0.0,15.06,0.0,0.2,1.0,0,0,0.0,0.0,0.0,0.25,0.1,0.1,0.05,0.05,0.1,0.0,0.0,0.0,0.0,2.75</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07</t>
   </si>
   <si>
     <t>ading</t>
@@ -2292,55 +2292,55 @@
     <t>eir society.</t>
   </si>
   <si>
-    <t>85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,1.33,18.92,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.05,0.0,334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0,129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,11.14,0.0,0.25,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,1.0,13.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,16.53,0.0,0.07,1.0,0.0,0.03,0.0,0.1,0.1,0.1,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
+    <t>16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>14.33,6.4,1.0,1.27,0.79,1.33,18.92,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.14,0.14,0.05,0.05,0.0,0.02,0.0,0.0,0.0,3.27,20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71,7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73</t>
+  </si>
+  <si>
+    <t>19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>24.0,4.92,0.56,0.42,1.32,1.0,11.14,0.0,0.25,1.0,1,0,0.0,0.0,0.0,0.38,0.13,0.17,0.04,0.04,0.04,0.04,0.0,0.0,0.0,0.69,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>36.0,5.22,0.83,0.42,1.97,1.0,13.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.14,0.19,0.03,0.03,0.11,0.0,0.0,0.0,0.0,6.45,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>30.0,6.1,0.69,0.42,1.64,1.0,16.53,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.23,0.13,0.17,0.0,0.0,0.13,0.07,0.07,0.0,0.0,1.07,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
   </si>
   <si>
     <t>stud</t>
@@ -2367,16 +2367,16 @@
     <t>efer to be lazy and lie on the couch all day then you are most likely to get sick and unfit. Besides, PE helps kids be better at teamwork.</t>
   </si>
   <si>
-    <t>225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0,365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6,23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>just</t>
@@ -2400,31 +2400,31 @@
     <t>ed in their homes to have any physical activity.</t>
   </si>
   <si>
-    <t>85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,120,2.0,24.61,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>201,0.0,15.44,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.2,0.5,400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0,79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,187,0.5,14.45,0.0,0.12,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.33,14.25,1.0,0.08,0.67,0.0,0.0,0.0,0.2,0.2,0.2,0.15,0.17,227,0.5,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.05,0.17</t>
-  </si>
-  <si>
-    <t>211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,469,0.4,9.25,0.0,0.02,11.4,0.0,0.01,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17,16.0,7.5,0.37,0.42,0.88,2.0,24.61,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.25,0.25,0.13,0.06,0.06,0.0,0.06,0.07,0.0,0.0,6.71</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>17.5,5.74,0.81,0.85,0.96,0.0,15.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.2,0.09,0.09,0.09,0.03,0.07,0.5,0.5,1.73,12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14</t>
+  </si>
+  <si>
+    <t>15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78,16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,17.0,5.5,0.79,0.85,0.93,0.5,14.45,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.26,0.03,0.03,0.15,0.0,0.0,0.0,0.0,5.1</t>
+  </si>
+  <si>
+    <t>20.67,5.39,1.44,1.27,1.13,0.33,14.25,1.0,0.08,0.67,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.06,0.06,0.06,0.02,0.07,0.17,0.17,4.22,19.5,5.82,0.9,0.85,1.07,0.5,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.13,0.26,0.05,0.05,0.08,0.0,0.07,0.17,0.17,3.93</t>
+  </si>
+  <si>
+    <t>12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71,16.8,5.58,1.95,2.11,0.92,0.4,9.25,0.0,0.02,11.4,3,0,0.0,0.01,0.0,0.19,0.05,0.21,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.79</t>
   </si>
   <si>
     <t>weigh</t>
@@ -2436,19 +2436,19 @@
     <t>!</t>
   </si>
   <si>
-    <t>129,0.0,10.34,1.0,0.14,5.33,0.0,0.0,0.0,0.05,0.2,0.2,0.05,0.0,85,0.0,13.22,0.0,0.13,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.05,0.17</t>
-  </si>
-  <si>
-    <t>79,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,182,0.33,9.45,2.0,0.0,1.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>400,0.0,12.87,1.0,0.01,0.83,0.0,0.0,0.0,0.2,0.3,0.3,0.05,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,5.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,176,0.5,15.05,0.0,0.03,2.0,0.0,0.07,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.5,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.1,0.17,225,0.33,17.95,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.05,0.0</t>
+    <t>7.0,6.14,0.49,1.27,0.38,0.0,10.34,1.0,0.14,5.33,1,0,0.0,0.0,0.0,0.29,0.14,0.29,0.0,0.0,0.05,0.0,0.0,0.0,0.0,2.73,16.0,5.31,0.37,0.42,0.88,0.0,13.22,0.0,0.13,1.0,0,0,0.0,0.06,0.0,0.25,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.17,0.17,3.0</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.37,0.42,0.88,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.06,0.31,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.71,12.67,4.79,0.88,1.27,0.69,0.33,9.45,2.0,0.0,1.0,3,1,0.0,0.05,0.0,0.13,0.08,0.21,0.03,0.03,0.21,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>12.0,5.56,1.67,2.54,0.66,0.0,12.87,1.0,0.01,0.83,0,0,0.0,0.0,0.0,0.26,0.15,0.13,0.04,0.04,0.06,0.01,0.07,0.0,0.0,4.14,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
+  </si>
+  <si>
+    <t>8.5,4.35,0.39,0.85,0.47,0.0,5.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.12,0.12,0.18,0.18,0.06,0.0,0.0,0.0,0.0,4.0,15.0,5.87,0.69,0.85,0.82,0.5,15.05,0.0,0.03,2.0,10,0,0.0,0.07,0.0,0.17,0.17,0.17,0.03,0.03,0.0,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>16.17,5.69,2.25,2.54,0.89,0.5,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.24,0.08,0.08,0.09,0.01,0.07,0.17,0.17,5.0,11.67,6.43,0.81,1.27,0.64,0.33,17.95,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.14,0.03,0.03,0.06,0.09,0.21,0.0,0.0,1.6</t>
   </si>
   <si>
     <t>situa</t>
@@ -2472,16 +2472,16 @@
     <t>a few. Now drop and give me twenty for your insolence!</t>
   </si>
   <si>
-    <t>290,0.0,14.46,0.0,0.02,0.5,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,211,0.33,14.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.33,6.36,0.0,0.0,2.0,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,85,1.0,15.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,19.46,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,373,0.6,10.65,0.0,0.0,1.0,0.0,0.03,0.0,0.3,0.3,0.3,0.15,0.0</t>
-  </si>
-  <si>
-    <t>565,1.0,15.63,0.0,0.01,1.0,0.0,0.02,0.0,0.4,0.4,0.45,0.0,0.0,246,0.5,16.6,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>27.0,5.37,1.25,0.85,1.48,0.0,14.46,0.0,0.02,0.5,0,0,0.0,0.0,0.0,0.3,0.06,0.26,0.09,0.09,0.06,0.0,0.0,0.0,0.0,3.11,12.33,5.7,0.86,1.27,0.68,0.33,14.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.05,0.22,0.08,0.08,0.05,0.05,0.14,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>7.33,4.73,0.51,1.27,0.4,0.33,6.36,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.18,0.14,0.23,0.05,0.05,0.09,0.0,0.0,0.0,0.0,6.0,15.0,5.67,0.35,0.42,0.82,1.0,15.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.13,0.13,0.0,0.0,0.0,0.0,0.0,9.17</t>
+  </si>
+  <si>
+    <t>11.0,6.64,0.51,0.85,0.6,0.0,19.46,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.23,0.05,0.05,0.0,0.09,0.0,0.0,0.0,5.1,14.8,5.04,1.71,2.11,0.81,0.6,10.65,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.09,0.24,0.07,0.07,0.11,0.03,0.07,0.0,0.0,2.78</t>
+  </si>
+  <si>
+    <t>51.5,5.49,2.39,0.85,2.82,1.0,15.63,0.0,0.01,1.0,1,0,0.0,0.02,0.0,0.23,0.15,0.21,0.04,0.04,0.08,0.03,0.07,0.0,0.0,3.41,20.5,6.0,0.95,0.85,1.12,0.5,16.6,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.12,0.24,0.1,0.1,0.02,0.0,0.0,0.0,0.0,3.06</t>
   </si>
   <si>
     <t>late</t>
@@ -2499,7 +2499,7 @@
     <t>benefit of working together as a team that doesn't always happen in other classes.</t>
   </si>
   <si>
-    <t>365,0.67,13.51,0.0,0.01,1.0,0.0,0.03,0.0,0.25,0.35,0.4,0.05,0.17,578,1.0,13.81,0.0,0.0,1.0,0.0,0.04,0.0,0.3,0.4,0.4,0.05,0.0</t>
+    <t>23.0,5.29,1.6,1.27,1.26,0.67,13.51,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.2,0.09,0.17,0.06,0.06,0.07,0.01,0.0,0.17,0.17,4.18,27.0,5.35,2.5,1.69,1.48,1.0,13.81,0.0,0.0,1.0,4,0,0.0,0.04,0.0,0.15,0.14,0.16,0.08,0.08,0.07,0.01,0.07,0.0,0.0,3.93</t>
   </si>
   <si>
     <t>(of</t>
